--- a/辅助总表/人物&地图-修订版(1).xlsx
+++ b/辅助总表/人物&地图-修订版(1).xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/XHCY/辅助总表/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
-    <sheet name="敌人" sheetId="2" r:id="rId2"/>
-    <sheet name="NPC" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId2"/>
+    <sheet name="敌人" sheetId="2" r:id="rId3"/>
+    <sheet name="NPC" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="223">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,20 +748,360 @@
     <t>m1002</t>
   </si>
   <si>
+    <t>m1003</t>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
     <t>m1006</t>
-  </si>
-  <si>
-    <t>m1003</t>
-  </si>
-  <si>
-    <t>r1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础怪物</t>
+    <rPh sb="0" eb="1">
+      <t>ji'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蘑菇</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mo'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人花</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ren'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树妖</t>
+    <rPh sb="0" eb="1">
+      <t>shu'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>l'l's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小花精</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蘑菇</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mo'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蜂怪</t>
+    <rPh sb="0" eb="1">
+      <t>huang'feng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤蔓怪</t>
+    <rPh sb="0" eb="1">
+      <t>teng'man</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超治疗小花精</t>
+    <rPh sb="0" eb="1">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'liao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯蘑菇</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯树妖</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯藤蔓怪</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>teng'man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击黄蜂怪</t>
+    <rPh sb="0" eb="1">
+      <t>fan'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huang'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff需求</t>
+    <rPh sb="4" eb="5">
+      <t>xu'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <rPh sb="0" eb="1">
+      <t>jian'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增加</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护之力</t>
+    <rPh sb="0" eb="1">
+      <t>sho'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减防</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减攻</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉之力</t>
+    <rPh sb="0" eb="1">
+      <t>guang'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <rPh sb="0" eb="1">
+      <t>hun'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡回血</t>
+    <rPh sb="0" eb="1">
+      <t>si'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <rPh sb="0" eb="1">
+      <t>jia'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫中毒</t>
+    <rPh sb="0" eb="1">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫眩晕</t>
+    <rPh sb="0" eb="1">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫混乱</t>
+    <rPh sb="0" eb="1">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hun'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -856,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,6 +1260,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,13 +1655,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>269874</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:colOff>1603374</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1600816</xdr:rowOff>
     </xdr:to>
@@ -1328,7 +1680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8127999" y="5778499"/>
+          <a:off x="8032749" y="5778499"/>
           <a:ext cx="1317625" cy="1442067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4271,8 +4623,8 @@
       <xdr:rowOff>165734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
@@ -5035,7 +5387,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
@@ -5079,7 +5431,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>372250</xdr:colOff>
+      <xdr:colOff>92850</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>51575</xdr:rowOff>
     </xdr:to>
@@ -5122,8 +5474,8 @@
       <xdr:rowOff>147976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123226</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>516926</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>64727</xdr:rowOff>
     </xdr:to>
@@ -6300,16 +6652,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
+    <col min="1" max="7" width="8.83203125" style="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
@@ -6364,7 +6716,7 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6392,7 +6744,7 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6420,7 +6772,7 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7051,19 +7403,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7214,7 +7579,7 @@
         <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7231,7 +7596,7 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7508,15 +7873,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" zoomScalePageLayoutView="57" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -7655,29 +8020,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C168"/>
+  <dimension ref="B2:X168"/>
   <sheetViews>
-    <sheetView topLeftCell="H212" workbookViewId="0">
-      <selection activeCell="T171" sqref="T171"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="T4" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>112</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T6" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T7" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T8" t="s">
+        <v>195</v>
+      </c>
+      <c r="X8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T9" t="s">
+        <v>196</v>
+      </c>
+      <c r="X9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T10" t="s">
+        <v>197</v>
+      </c>
+      <c r="X10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T11" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T12" t="s">
+        <v>199</v>
+      </c>
+      <c r="X12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T13" t="s">
+        <v>200</v>
+      </c>
+      <c r="X13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T14" t="s">
+        <v>201</v>
+      </c>
+      <c r="X14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T15" t="s">
+        <v>202</v>
+      </c>
+      <c r="X15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T16" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="20:24" x14ac:dyDescent="0.15">
+      <c r="T17" t="s">
+        <v>204</v>
+      </c>
+      <c r="X17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="20:24" x14ac:dyDescent="0.15">
+      <c r="T18" t="s">
+        <v>205</v>
+      </c>
+      <c r="X18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="20:24" x14ac:dyDescent="0.15">
+      <c r="T19" t="s">
+        <v>206</v>
+      </c>
+      <c r="X19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="20:24" x14ac:dyDescent="0.15">
+      <c r="X20" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
